--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_4_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>771525.8424473854</v>
+        <v>770813.5406243413</v>
       </c>
     </row>
     <row r="7">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>40.86903495326928</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891595</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.577481202235615</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240824</v>
+        <v>62.86150506240826</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.73328122929904</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538038</v>
+        <v>49.3687304053804</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675145</v>
+        <v>44.31761724675148</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958195</v>
+        <v>72.00227733958198</v>
       </c>
       <c r="V11" t="n">
         <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>126.7249301549409</v>
+        <v>39.25421457088336</v>
       </c>
       <c r="C12" t="n">
-        <v>9.36988737129812</v>
+        <v>9.369887371298148</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693651</v>
+        <v>13.44252716693654</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242248</v>
+        <v>36.82265945242251</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382081</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233444</v>
+        <v>62.50065676233447</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394379</v>
+        <v>88.55631942394382</v>
       </c>
       <c r="X12" t="n">
-        <v>39.1646502864028</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="Y12" t="n">
-        <v>188.4979333192472</v>
+        <v>45.23602198095784</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256631</v>
+        <v>25.28169700256634</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311276</v>
+        <v>57.28978021311278</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725521</v>
+        <v>45.61329429725524</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.9607510313821</v>
+        <v>66.96075103138213</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362676</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517473</v>
+        <v>43.77119125517476</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110062</v>
+        <v>38.99300866110065</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891595</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>74.12747641107354</v>
       </c>
       <c r="G14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240831</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.7332812292991</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538038</v>
+        <v>49.36873040538045</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675145</v>
+        <v>44.31761724675152</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958195</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560842</v>
+        <v>142.7315194560843</v>
       </c>
       <c r="W14" t="n">
-        <v>74.98080636912975</v>
+        <v>159.7481996726992</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6344501416384</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>9.36988737129812</v>
+        <v>9.369887371298205</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>18.67489541307998</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693651</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="T15" t="n">
-        <v>47.69557197377084</v>
+        <v>36.82265945242256</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382081</v>
+        <v>59.07980534382089</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233444</v>
+        <v>62.50065676233453</v>
       </c>
       <c r="W15" t="n">
-        <v>188.4979333192472</v>
+        <v>88.55631942394388</v>
       </c>
       <c r="X15" t="n">
-        <v>39.1646502864028</v>
+        <v>39.16465028640289</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095782</v>
+        <v>45.2360219809579</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256631</v>
+        <v>25.2816970025664</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311276</v>
+        <v>57.28978021311284</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725521</v>
+        <v>45.61329429725529</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5082928154978</v>
+        <v>110.5082928154979</v>
       </c>
       <c r="V16" t="n">
-        <v>66.9607510313821</v>
+        <v>66.96075103138219</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362676</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517473</v>
+        <v>43.77119125517481</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110062</v>
+        <v>38.9930086611007</v>
       </c>
     </row>
     <row r="17">
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890777</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S18" t="n">
-        <v>31.30917887851529</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="V18" t="n">
-        <v>188.4979333192472</v>
+        <v>167.3319418138601</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2081,7 +2081,7 @@
         <v>76.63956945084891</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75782645419398</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D20" t="n">
         <v>40.32448871524286</v>
@@ -2096,7 +2096,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156616</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>45.94372778432341</v>
       </c>
       <c r="X21" t="n">
-        <v>178.7562003840555</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Y21" t="n">
         <v>188.4979333192472</v>
@@ -2400,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.86945587416103</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>188.4979333192472</v>
       </c>
       <c r="V24" t="n">
-        <v>110.796225891432</v>
+        <v>113.5538092836903</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538325</v>
       </c>
       <c r="C26" t="n">
         <v>136.7207468571779</v>
       </c>
       <c r="D26" t="n">
-        <v>124.2874091182263</v>
+        <v>124.2874091182264</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376353</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7144991160125</v>
+        <v>189.7144991160126</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386477</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845497</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147508</v>
+        <v>27.52501869147516</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444722</v>
+        <v>14.0322440344473</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818295</v>
+        <v>8.981130875818378</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864887</v>
       </c>
       <c r="V26" t="n">
         <v>107.3950330851511</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4117133017659</v>
+        <v>124.411713301766</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707053</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8008168944489</v>
+        <v>168.800816894449</v>
       </c>
     </row>
     <row r="27">
@@ -2637,22 +2637,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>37.27941480276718</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.86945587416103</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288765</v>
+        <v>48.62688120070554</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.16417039140137</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21983305301063</v>
+        <v>53.21983305301072</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469645</v>
+        <v>3.82816391546973</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024657</v>
+        <v>9.899535610024742</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217969</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632213</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456465</v>
+        <v>75.17180644456474</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044894</v>
+        <v>31.62426466044903</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533445</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241569</v>
+        <v>8.434704884241654</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167459</v>
+        <v>3.656522290167544</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>133.5366480845496</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147508</v>
+        <v>27.5250186914751</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444722</v>
+        <v>14.03224403444724</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818295</v>
+        <v>8.981130875818321</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864882</v>
       </c>
       <c r="V29" t="n">
         <v>107.3950330851511</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4117133017659</v>
+        <v>124.411713301766</v>
       </c>
       <c r="X29" t="n">
         <v>146.2979637707052</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8008168944489</v>
+        <v>168.800816894449</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>11.73039443350255</v>
+        <v>11.73039443350266</v>
       </c>
       <c r="S30" t="n">
         <v>191.5907913200043</v>
@@ -2925,19 +2925,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288765</v>
+        <v>23.74331897288768</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140129</v>
+        <v>27.16417039140131</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21983305301063</v>
+        <v>53.21983305301066</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024657</v>
+        <v>9.899535610024685</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217963</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632208</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456465</v>
+        <v>75.17180644456468</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044894</v>
+        <v>31.62426466044897</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533439</v>
       </c>
       <c r="X31" t="n">
-        <v>8.434704884241569</v>
+        <v>8.434704884241597</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.656522290167459</v>
+        <v>3.656522290167487</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>123.4596992513621</v>
       </c>
       <c r="E32" t="n">
-        <v>157.166451670771</v>
+        <v>157.1664516707709</v>
       </c>
       <c r="F32" t="n">
         <v>188.8867892491483</v>
@@ -3044,10 +3044,10 @@
         <v>204.5257125717833</v>
       </c>
       <c r="H32" t="n">
-        <v>132.7089382176854</v>
+        <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461084</v>
+        <v>26.69730882461081</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758298</v>
+        <v>13.20453416758295</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954041</v>
+        <v>8.153421008954012</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178455</v>
+        <v>35.83808110178452</v>
       </c>
       <c r="V32" t="n">
         <v>106.5673232182868</v>
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>89.27833304413963</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250788</v>
+        <v>0.6584632146250504</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602341</v>
+        <v>22.91560910602338</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453705</v>
+        <v>232.9684857455011</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605405</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160417</v>
+        <v>9.071825743160389</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531536</v>
+        <v>21.12558397531533</v>
       </c>
       <c r="T34" t="n">
-        <v>9.449098059457809</v>
+        <v>9.44909805945778</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770041</v>
+        <v>74.34409657770038</v>
       </c>
       <c r="V34" t="n">
-        <v>30.7965547935847</v>
+        <v>30.79655479358468</v>
       </c>
       <c r="W34" t="n">
-        <v>75.99824669847013</v>
+        <v>75.9982466984701</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377329</v>
+        <v>7.606995017377301</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303219</v>
+        <v>2.828812423303191</v>
       </c>
     </row>
     <row r="35">
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>5.877748594087967</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>72.29040426511968</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>34.63008851940415</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="X39" t="n">
-        <v>181.1010357451965</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D41" t="n">
-        <v>96.76239042675124</v>
+        <v>96.76239042675127</v>
       </c>
       <c r="E41" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F41" t="n">
-        <v>162.1894804245374</v>
+        <v>162.1894804245375</v>
       </c>
       <c r="G41" t="n">
         <v>177.8284037471725</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173706</v>
+        <v>9.140772277173735</v>
       </c>
       <c r="V41" t="n">
-        <v>79.87001439367597</v>
+        <v>79.870014393676</v>
       </c>
       <c r="W41" t="n">
-        <v>96.88669461029085</v>
+        <v>96.88669461029087</v>
       </c>
       <c r="X41" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.2757982029738</v>
+        <v>141.2757982029739</v>
       </c>
     </row>
     <row r="42">
@@ -3819,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>63.58134961941762</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69481436153558</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>46.59558990358391</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64678775308956</v>
+        <v>47.64678775308959</v>
       </c>
       <c r="V43" t="n">
-        <v>4.099245968973861</v>
+        <v>4.099245968973889</v>
       </c>
       <c r="W43" t="n">
-        <v>49.30093787385928</v>
+        <v>49.30093787385931</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,16 +3977,16 @@
         <v>133.0774711623573</v>
       </c>
       <c r="C44" t="n">
-        <v>109.1957281657028</v>
+        <v>109.195728165703</v>
       </c>
       <c r="D44" t="n">
-        <v>96.76239042675124</v>
+        <v>96.76239042675127</v>
       </c>
       <c r="E44" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F44" t="n">
-        <v>162.1894804245374</v>
+        <v>162.1894804245375</v>
       </c>
       <c r="G44" t="n">
         <v>177.8284037471725</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.140772277173706</v>
+        <v>9.140772277173735</v>
       </c>
       <c r="V44" t="n">
-        <v>79.87001439367597</v>
+        <v>79.870014393676</v>
       </c>
       <c r="W44" t="n">
-        <v>96.88669461029055</v>
+        <v>96.88669461029087</v>
       </c>
       <c r="X44" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.2757982029738</v>
+        <v>141.2757982029739</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>24.25594830545966</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69481436153555</v>
+        <v>25.69481436153558</v>
       </c>
       <c r="X45" t="n">
-        <v>9.977697147657029</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64678775308956</v>
+        <v>47.64678775308959</v>
       </c>
       <c r="V46" t="n">
-        <v>4.099245968973861</v>
+        <v>4.099245968973889</v>
       </c>
       <c r="W46" t="n">
-        <v>49.30093787385928</v>
+        <v>49.30093787385931</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="C8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="D8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="E8" t="n">
         <v>6.719070557086891</v>
@@ -4820,34 +4820,34 @@
         <v>6.590454258427762</v>
       </c>
       <c r="P8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="R8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="S8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="T8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="U8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="V8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="W8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="X8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>9.950635850029798</v>
+      </c>
+      <c r="C9" t="n">
         <v>6.719070557086891</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
+        <v>6.719070557086891</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.719070557086891</v>
+      </c>
+      <c r="F9" t="n">
         <v>3.487505264143985</v>
       </c>
-      <c r="D9" t="n">
+      <c r="G9" t="n">
         <v>3.487505264143985</v>
       </c>
-      <c r="E9" t="n">
+      <c r="H9" t="n">
         <v>3.487505264143985</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.2559399712010781</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.2559399712010781</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.2559399712010781</v>
       </c>
       <c r="I9" t="n">
         <v>0.2559399712010781</v>
@@ -4884,31 +4884,31 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>3.295227129213883</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="L9" t="n">
-        <v>3.295227129213883</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="M9" t="n">
-        <v>6.462484272827225</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="N9" t="n">
-        <v>9.629741416440567</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="O9" t="n">
-        <v>9.629741416440567</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="R9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="S9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="T9" t="n">
         <v>9.950635850029798</v>
@@ -4917,16 +4917,16 @@
         <v>9.950635850029798</v>
       </c>
       <c r="V9" t="n">
-        <v>6.719070557086891</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="W9" t="n">
-        <v>6.719070557086891</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="X9" t="n">
-        <v>6.719070557086891</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.719070557086891</v>
+        <v>9.950635850029798</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>281.094415983557</v>
+        <v>425.5539295627493</v>
       </c>
       <c r="C11" t="n">
-        <v>239.8125624954062</v>
+        <v>251.7587444838493</v>
       </c>
       <c r="D11" t="n">
-        <v>78.5763044255481</v>
+        <v>251.7587444838493</v>
       </c>
       <c r="E11" t="n">
-        <v>78.5763044255481</v>
+        <v>251.7587444838493</v>
       </c>
       <c r="F11" t="n">
-        <v>78.5763044255481</v>
+        <v>251.7587444838493</v>
       </c>
       <c r="G11" t="n">
-        <v>78.5763044255481</v>
+        <v>249.155228117955</v>
       </c>
       <c r="H11" t="n">
-        <v>78.5763044255481</v>
+        <v>78.57630442554813</v>
       </c>
       <c r="I11" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J11" t="n">
-        <v>15.07983466553977</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K11" t="n">
-        <v>15.07983466553977</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="L11" t="n">
-        <v>201.6927886515945</v>
+        <v>162.153655882889</v>
       </c>
       <c r="M11" t="n">
-        <v>282.5546877385418</v>
+        <v>348.7666098689438</v>
       </c>
       <c r="N11" t="n">
-        <v>469.1676417245965</v>
+        <v>535.3795638549985</v>
       </c>
       <c r="O11" t="n">
-        <v>655.7805957106513</v>
+        <v>569.6001985476663</v>
       </c>
       <c r="P11" t="n">
-        <v>753.9917332769887</v>
+        <v>666.4395714324996</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="R11" t="n">
-        <v>753.9917332769887</v>
+        <v>737.0894290049698</v>
       </c>
       <c r="S11" t="n">
-        <v>704.1243288271095</v>
+        <v>687.2220245550907</v>
       </c>
       <c r="T11" t="n">
-        <v>659.3590588808959</v>
+        <v>642.4567546088768</v>
       </c>
       <c r="U11" t="n">
-        <v>586.629485810611</v>
+        <v>569.727181538592</v>
       </c>
       <c r="V11" t="n">
-        <v>442.4562338347683</v>
+        <v>425.5539295627493</v>
       </c>
       <c r="W11" t="n">
-        <v>281.094415983557</v>
+        <v>425.5539295627493</v>
       </c>
       <c r="X11" t="n">
-        <v>281.094415983557</v>
+        <v>425.5539295627493</v>
       </c>
       <c r="Y11" t="n">
-        <v>281.094415983557</v>
+        <v>425.5539295627493</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132.9922566001716</v>
+        <v>77.54958997382334</v>
       </c>
       <c r="C12" t="n">
-        <v>123.5277239018906</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="D12" t="n">
-        <v>123.5277239018906</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="E12" t="n">
-        <v>123.5277239018906</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="F12" t="n">
-        <v>123.5277239018906</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="G12" t="n">
-        <v>123.5277239018906</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="H12" t="n">
-        <v>123.5277239018906</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="I12" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="J12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142016</v>
+        <v>53.04316068142019</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188889</v>
+        <v>670.3666200188891</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.9917332769887</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="R12" t="n">
-        <v>753.9917332769887</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="S12" t="n">
-        <v>740.4134230073558</v>
+        <v>733.4745786900219</v>
       </c>
       <c r="T12" t="n">
-        <v>703.2188174998583</v>
+        <v>696.2799731825244</v>
       </c>
       <c r="U12" t="n">
-        <v>643.5422464454939</v>
+        <v>505.8780203347999</v>
       </c>
       <c r="V12" t="n">
-        <v>580.4102699178834</v>
+        <v>442.7460438071893</v>
       </c>
       <c r="W12" t="n">
-        <v>490.9594422169301</v>
+        <v>353.295216106236</v>
       </c>
       <c r="X12" t="n">
-        <v>451.3991894023818</v>
+        <v>162.8932632585114</v>
       </c>
       <c r="Y12" t="n">
-        <v>260.9972365546574</v>
+        <v>117.2003117625944</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.60586471875849</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C13" t="n">
-        <v>27.18003706804298</v>
+        <v>16.82538453174134</v>
       </c>
       <c r="D13" t="n">
-        <v>59.8159948313765</v>
+        <v>16.82538453174134</v>
       </c>
       <c r="E13" t="n">
-        <v>59.8159948313765</v>
+        <v>16.82538453174134</v>
       </c>
       <c r="F13" t="n">
-        <v>59.8159948313765</v>
+        <v>55.65455264701625</v>
       </c>
       <c r="G13" t="n">
-        <v>59.8159948313765</v>
+        <v>65.00756698067239</v>
       </c>
       <c r="H13" t="n">
-        <v>59.8159948313765</v>
+        <v>77.20819481408958</v>
       </c>
       <c r="I13" t="n">
-        <v>59.8159948313765</v>
+        <v>90.37053793834129</v>
       </c>
       <c r="J13" t="n">
-        <v>117.1455648358338</v>
+        <v>147.7001079427985</v>
       </c>
       <c r="K13" t="n">
-        <v>117.1455648358338</v>
+        <v>257.7072091165376</v>
       </c>
       <c r="L13" t="n">
-        <v>261.6820482616738</v>
+        <v>402.2436925423776</v>
       </c>
       <c r="M13" t="n">
-        <v>413.0841330283064</v>
+        <v>402.2436925423776</v>
       </c>
       <c r="N13" t="n">
-        <v>520.7166611426682</v>
+        <v>402.2436925423776</v>
       </c>
       <c r="O13" t="n">
-        <v>520.7166611426682</v>
+        <v>402.2436925423776</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7166611426682</v>
+        <v>520.7166611426684</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426682</v>
+        <v>520.7166611426684</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633082</v>
+        <v>495.1795934633085</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015782</v>
+        <v>437.3111286015784</v>
       </c>
       <c r="T13" t="n">
-        <v>391.237093957886</v>
+        <v>391.2370939578862</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604135</v>
+        <v>279.6125557604136</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064922</v>
+        <v>211.9754335064923</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117144</v>
+        <v>98.68003660117151</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099494</v>
+        <v>54.46671210099498</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>366.7180455831223</v>
+        <v>153.4525432246123</v>
       </c>
       <c r="C14" t="n">
-        <v>366.7180455831223</v>
+        <v>153.4525432246123</v>
       </c>
       <c r="D14" t="n">
-        <v>205.4817875132642</v>
+        <v>153.4525432246123</v>
       </c>
       <c r="E14" t="n">
-        <v>205.4817875132642</v>
+        <v>153.4525432246123</v>
       </c>
       <c r="F14" t="n">
-        <v>205.4817875132642</v>
+        <v>78.57630442554819</v>
       </c>
       <c r="G14" t="n">
-        <v>15.07983466553977</v>
+        <v>78.57630442554819</v>
       </c>
       <c r="H14" t="n">
-        <v>15.07983466553977</v>
+        <v>78.57630442554819</v>
       </c>
       <c r="I14" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J14" t="n">
-        <v>15.07983466553977</v>
+        <v>98.17571186577356</v>
       </c>
       <c r="K14" t="n">
-        <v>15.07983466553977</v>
+        <v>267.8825731524727</v>
       </c>
       <c r="L14" t="n">
-        <v>201.6927886515945</v>
+        <v>314.6034156332329</v>
       </c>
       <c r="M14" t="n">
-        <v>388.3057426376492</v>
+        <v>395.4653147201802</v>
       </c>
       <c r="N14" t="n">
-        <v>558.3453697003617</v>
+        <v>470.7932078558727</v>
       </c>
       <c r="O14" t="n">
-        <v>592.5660043930295</v>
+        <v>505.0138425485405</v>
       </c>
       <c r="P14" t="n">
-        <v>753.9917332769887</v>
+        <v>666.4395714324997</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="R14" t="n">
-        <v>753.9917332769887</v>
+        <v>737.0894290049698</v>
       </c>
       <c r="S14" t="n">
-        <v>704.1243288271096</v>
+        <v>687.2220245550906</v>
       </c>
       <c r="T14" t="n">
-        <v>659.359058880896</v>
+        <v>642.4567546088768</v>
       </c>
       <c r="U14" t="n">
-        <v>586.6294858106112</v>
+        <v>642.4567546088768</v>
       </c>
       <c r="V14" t="n">
-        <v>442.4562338347685</v>
+        <v>498.2835026330341</v>
       </c>
       <c r="W14" t="n">
-        <v>366.7180455831223</v>
+        <v>336.9216847818228</v>
       </c>
       <c r="X14" t="n">
-        <v>366.7180455831223</v>
+        <v>153.4525432246123</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.7180455831223</v>
+        <v>153.4525432246123</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>293.7723728391398</v>
+        <v>43.40789808410361</v>
       </c>
       <c r="C15" t="n">
-        <v>284.3078401408589</v>
+        <v>33.94336538582259</v>
       </c>
       <c r="D15" t="n">
-        <v>123.5277239018906</v>
+        <v>33.94336538582259</v>
       </c>
       <c r="E15" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F15" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G15" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H15" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I15" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J15" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142016</v>
+        <v>53.04316068142023</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188889</v>
+        <v>670.3666200188891</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.9917332769887</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="R15" t="n">
-        <v>753.9917332769887</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="S15" t="n">
-        <v>740.4134230073558</v>
+        <v>556.6509361119303</v>
       </c>
       <c r="T15" t="n">
-        <v>692.2360775793045</v>
+        <v>519.4563306044328</v>
       </c>
       <c r="U15" t="n">
-        <v>632.55950652494</v>
+        <v>459.7797595500682</v>
       </c>
       <c r="V15" t="n">
-        <v>569.4275299973295</v>
+        <v>396.6477830224576</v>
       </c>
       <c r="W15" t="n">
-        <v>379.0255771496051</v>
+        <v>307.1969553215042</v>
       </c>
       <c r="X15" t="n">
-        <v>339.4653243350568</v>
+        <v>267.6367025069558</v>
       </c>
       <c r="Y15" t="n">
-        <v>293.7723728391398</v>
+        <v>221.9437510110387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.60586471875849</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C16" t="n">
-        <v>15.60586471875849</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D16" t="n">
-        <v>15.60586471875849</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E16" t="n">
-        <v>15.60586471875849</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F16" t="n">
-        <v>54.43503283403342</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G16" t="n">
-        <v>63.7880471676896</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H16" t="n">
-        <v>63.7880471676896</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I16" t="n">
-        <v>63.7880471676896</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J16" t="n">
-        <v>63.7880471676896</v>
+        <v>61.15695601452282</v>
       </c>
       <c r="K16" t="n">
-        <v>171.0201836654967</v>
+        <v>61.15695601452282</v>
       </c>
       <c r="L16" t="n">
-        <v>171.0201836654967</v>
+        <v>61.15695601452282</v>
       </c>
       <c r="M16" t="n">
-        <v>171.0201836654967</v>
+        <v>212.5590407811554</v>
       </c>
       <c r="N16" t="n">
-        <v>331.0320093814453</v>
+        <v>212.5590407811554</v>
       </c>
       <c r="O16" t="n">
-        <v>470.2946957351834</v>
+        <v>351.8217271348934</v>
       </c>
       <c r="P16" t="n">
-        <v>470.2946957351834</v>
+        <v>470.2946957351841</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426682</v>
+        <v>520.7166611426688</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633082</v>
+        <v>495.1795934633089</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015782</v>
+        <v>437.3111286015787</v>
       </c>
       <c r="T16" t="n">
-        <v>391.237093957886</v>
+        <v>391.2370939578865</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604135</v>
+        <v>279.6125557604138</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064922</v>
+        <v>211.9754335064924</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117144</v>
+        <v>98.68003660117162</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099494</v>
+        <v>54.46671210099504</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961946</v>
+        <v>463.3923242961951</v>
       </c>
       <c r="C17" t="n">
-        <v>410.101590504079</v>
+        <v>410.1015905040795</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210058</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718621</v>
+        <v>294.5907522718626</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940549</v>
+        <v>187.7709757940555</v>
       </c>
       <c r="G17" t="n">
         <v>65.15430707116215</v>
@@ -5510,55 +5510,55 @@
         <v>15.07983466553978</v>
       </c>
       <c r="I17" t="n">
-        <v>15.07983466553978</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="J17" t="n">
-        <v>201.6927886515945</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="K17" t="n">
-        <v>201.6927886515945</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="L17" t="n">
-        <v>248.4136311323547</v>
+        <v>117.6741998406933</v>
       </c>
       <c r="M17" t="n">
-        <v>329.275530219302</v>
+        <v>198.5360989276406</v>
       </c>
       <c r="N17" t="n">
-        <v>404.6034233549943</v>
+        <v>273.8639920633331</v>
       </c>
       <c r="O17" t="n">
-        <v>591.2163773410491</v>
+        <v>308.0846267560009</v>
       </c>
       <c r="P17" t="n">
-        <v>591.2163773410491</v>
+        <v>308.0846267560009</v>
       </c>
       <c r="Q17" t="n">
-        <v>753.9917332769888</v>
+        <v>494.6975807420557</v>
       </c>
       <c r="R17" t="n">
-        <v>753.9917332769888</v>
+        <v>596.2380450312271</v>
       </c>
       <c r="S17" t="n">
-        <v>753.9917332769888</v>
+        <v>632.9356035051042</v>
       </c>
       <c r="T17" t="n">
-        <v>753.9917332769888</v>
+        <v>707.1675751369977</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879306</v>
+        <v>730.3229325879308</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235039</v>
+        <v>689.465566023504</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530779</v>
+        <v>626.5008757530782</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122039</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="C18" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="D18" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="E18" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="F18" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="G18" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="H18" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="I18" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="J18" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142019</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O18" t="n">
-        <v>670.366620018889</v>
+        <v>670.3666200188891</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="R18" t="n">
-        <v>617.9111264193347</v>
+        <v>617.9111264193349</v>
       </c>
       <c r="S18" t="n">
-        <v>586.2856932087132</v>
+        <v>617.9111264193349</v>
       </c>
       <c r="T18" t="n">
-        <v>586.2856932087132</v>
+        <v>617.9111264193349</v>
       </c>
       <c r="U18" t="n">
-        <v>395.8837403609887</v>
+        <v>427.5091735716104</v>
       </c>
       <c r="V18" t="n">
-        <v>205.4817875132642</v>
+        <v>258.4870101232669</v>
       </c>
       <c r="W18" t="n">
-        <v>205.4817875132642</v>
+        <v>258.4870101232669</v>
       </c>
       <c r="X18" t="n">
-        <v>205.4817875132642</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961944</v>
+        <v>463.3923242961948</v>
       </c>
       <c r="C20" t="n">
         <v>410.1015905040792</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210056</v>
+        <v>369.3697837210054</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718624</v>
+        <v>294.5907522718617</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940552</v>
+        <v>187.7709757940545</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116217</v>
+        <v>65.15430707116215</v>
       </c>
       <c r="H20" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I20" t="n">
-        <v>15.07983466553977</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="J20" t="n">
-        <v>15.07983466553977</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="K20" t="n">
-        <v>15.07983466553977</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="L20" t="n">
-        <v>61.80067714629992</v>
+        <v>117.6741998406933</v>
       </c>
       <c r="M20" t="n">
-        <v>142.6625762332472</v>
+        <v>198.5360989276406</v>
       </c>
       <c r="N20" t="n">
-        <v>288.1543390723504</v>
+        <v>273.8639920633331</v>
       </c>
       <c r="O20" t="n">
-        <v>322.3749737650182</v>
+        <v>308.0846267560009</v>
       </c>
       <c r="P20" t="n">
-        <v>322.3749737650182</v>
+        <v>308.0846267560009</v>
       </c>
       <c r="Q20" t="n">
-        <v>508.9879277510729</v>
+        <v>494.6975807420557</v>
       </c>
       <c r="R20" t="n">
-        <v>610.5283920402443</v>
+        <v>596.2380450312271</v>
       </c>
       <c r="S20" t="n">
-        <v>679.7597616450952</v>
+        <v>665.469414636078</v>
       </c>
       <c r="T20" t="n">
-        <v>753.9917332769887</v>
+        <v>707.1675751369976</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769887</v>
+        <v>753.991733276989</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879306</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235037</v>
+        <v>689.4655660235042</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530782</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122034</v>
+        <v>540.8060308122039</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>204.4921089325761</v>
+        <v>326.7800217387891</v>
       </c>
       <c r="C21" t="n">
-        <v>15.07983466553977</v>
+        <v>326.7800217387891</v>
       </c>
       <c r="D21" t="n">
-        <v>15.07983466553977</v>
+        <v>326.7800217387891</v>
       </c>
       <c r="E21" t="n">
-        <v>15.07983466553977</v>
+        <v>326.7800217387891</v>
       </c>
       <c r="F21" t="n">
-        <v>15.07983466553977</v>
+        <v>326.7800217387891</v>
       </c>
       <c r="G21" t="n">
-        <v>15.07983466553977</v>
+        <v>176.5329465118932</v>
       </c>
       <c r="H21" t="n">
-        <v>15.07983466553977</v>
+        <v>176.5329465118932</v>
       </c>
       <c r="I21" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="J21" t="n">
-        <v>15.07983466553974</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142012</v>
+        <v>53.0431606814202</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3666200188889</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769887</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.9917332769887</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R21" t="n">
-        <v>753.9917332769887</v>
+        <v>753.991733276989</v>
       </c>
       <c r="S21" t="n">
-        <v>753.9917332769887</v>
+        <v>753.991733276989</v>
       </c>
       <c r="T21" t="n">
-        <v>753.9917332769887</v>
+        <v>753.991733276989</v>
       </c>
       <c r="U21" t="n">
-        <v>753.9917332769887</v>
+        <v>753.991733276989</v>
       </c>
       <c r="V21" t="n">
-        <v>753.9917332769887</v>
+        <v>753.991733276989</v>
       </c>
       <c r="W21" t="n">
-        <v>753.9917332769887</v>
+        <v>707.583927434238</v>
       </c>
       <c r="X21" t="n">
-        <v>573.4299147072356</v>
+        <v>517.1819745865135</v>
       </c>
       <c r="Y21" t="n">
-        <v>383.0279618595112</v>
+        <v>326.7800217387891</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961944</v>
+        <v>463.392324296194</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040788</v>
+        <v>410.1015905040784</v>
       </c>
       <c r="D23" t="n">
         <v>369.3697837210051</v>
       </c>
       <c r="E23" t="n">
-        <v>294.590752271862</v>
+        <v>294.5907522718618</v>
       </c>
       <c r="F23" t="n">
         <v>187.7709757940548</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116214</v>
+        <v>65.15430707116215</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95335735993307</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="J23" t="n">
-        <v>257.5663113459878</v>
+        <v>257.5663113459879</v>
       </c>
       <c r="K23" t="n">
-        <v>444.1792653320425</v>
+        <v>257.5663113459879</v>
       </c>
       <c r="L23" t="n">
-        <v>490.9001078128027</v>
+        <v>304.2871538267481</v>
       </c>
       <c r="M23" t="n">
-        <v>571.76200689975</v>
+        <v>385.1490529136954</v>
       </c>
       <c r="N23" t="n">
-        <v>647.0899000354424</v>
+        <v>460.4769460493878</v>
       </c>
       <c r="O23" t="n">
-        <v>681.3105347281102</v>
+        <v>494.6975807420557</v>
       </c>
       <c r="P23" t="n">
-        <v>681.3105347281102</v>
+        <v>494.6975807420557</v>
       </c>
       <c r="Q23" t="n">
-        <v>681.3105347281102</v>
+        <v>563.704233900253</v>
       </c>
       <c r="R23" t="n">
-        <v>753.9917332769887</v>
+        <v>563.704233900253</v>
       </c>
       <c r="S23" t="n">
-        <v>753.9917332769887</v>
+        <v>632.9356035051039</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9917332769887</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879305</v>
+        <v>730.3229325879303</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235037</v>
+        <v>689.4655660235034</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530774</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122034</v>
+        <v>540.8060308122031</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>444.7355564236148</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="C24" t="n">
-        <v>444.7355564236148</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="D24" t="n">
-        <v>283.9554401846465</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="E24" t="n">
-        <v>283.9554401846465</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="F24" t="n">
-        <v>123.5277239018906</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="G24" t="n">
-        <v>123.5277239018906</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="H24" t="n">
-        <v>123.5277239018906</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553974</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142012</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137998</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188889</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769887</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0528889596543</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R24" t="n">
-        <v>747.0528889596543</v>
+        <v>753.991733276989</v>
       </c>
       <c r="S24" t="n">
-        <v>747.0528889596543</v>
+        <v>753.991733276989</v>
       </c>
       <c r="T24" t="n">
-        <v>747.0528889596543</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="U24" t="n">
-        <v>556.6509361119299</v>
+        <v>563.5897804292644</v>
       </c>
       <c r="V24" t="n">
-        <v>444.7355564236148</v>
+        <v>448.8889629709913</v>
       </c>
       <c r="W24" t="n">
-        <v>444.7355564236148</v>
+        <v>258.4870101232668</v>
       </c>
       <c r="X24" t="n">
-        <v>444.7355564236148</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="Y24" t="n">
-        <v>444.7355564236148</v>
+        <v>68.08505727554238</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.89842248961</v>
+        <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874105</v>
+        <v>882.7966579874113</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942526</v>
+        <v>757.2538204942533</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350251</v>
+        <v>597.6637583350257</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471337</v>
+        <v>406.0329511471342</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141563</v>
+        <v>198.6052517141571</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845022</v>
+        <v>63.71974859845034</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="J26" t="n">
         <v>171.2527996589549</v>
       </c>
       <c r="K26" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528779</v>
       </c>
       <c r="L26" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279524009</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581073</v>
+        <v>926.225330058109</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212562</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.473663923991</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315174</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666887</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.834970757103</v>
+        <v>1795.834970757105</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.58913751441</v>
+        <v>1772.589137514412</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621683</v>
+        <v>1627.073153621685</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347174</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715704</v>
+        <v>1183.123159715705</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>234.35279020236</v>
+        <v>431.7978853239197</v>
       </c>
       <c r="C27" t="n">
-        <v>234.35279020236</v>
+        <v>431.7978853239197</v>
       </c>
       <c r="D27" t="n">
-        <v>73.57267396339174</v>
+        <v>431.7978853239197</v>
       </c>
       <c r="E27" t="n">
-        <v>73.57267396339174</v>
+        <v>431.7978853239197</v>
       </c>
       <c r="F27" t="n">
-        <v>73.57267396339174</v>
+        <v>271.3701690411638</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514206</v>
+        <v>271.3701690411638</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514206</v>
+        <v>144.364588651493</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102245</v>
+        <v>73.88002543102249</v>
       </c>
       <c r="L27" t="n">
         <v>191.2129445593966</v>
       </c>
       <c r="M27" t="n">
-        <v>372.889591163402</v>
+        <v>372.8895911634021</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7945675741612</v>
+        <v>577.7945675741614</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931956</v>
+        <v>709.4955071931959</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512958</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.1817761339611</v>
+        <v>793.1206204512958</v>
       </c>
       <c r="R27" t="n">
-        <v>786.1817761339611</v>
+        <v>793.1206204512958</v>
       </c>
       <c r="S27" t="n">
-        <v>786.1817761339611</v>
+        <v>793.1206204512958</v>
       </c>
       <c r="T27" t="n">
-        <v>569.0394290577083</v>
+        <v>575.978273375043</v>
       </c>
       <c r="U27" t="n">
-        <v>545.056278580044</v>
+        <v>526.8602115561486</v>
       </c>
       <c r="V27" t="n">
-        <v>301.9765604836781</v>
+        <v>499.4216556052381</v>
       </c>
       <c r="W27" t="n">
-        <v>248.2191533594249</v>
+        <v>445.6642484809848</v>
       </c>
       <c r="X27" t="n">
-        <v>244.3523211215768</v>
+        <v>441.7974162431366</v>
       </c>
       <c r="Y27" t="n">
-        <v>234.35279020236</v>
+        <v>431.7978853239197</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="G28" t="n">
-        <v>79.77730790215296</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="H28" t="n">
-        <v>79.77730790215296</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="I28" t="n">
-        <v>79.77730790215296</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77730790215296</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="K28" t="n">
-        <v>79.77730790215296</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="L28" t="n">
-        <v>79.77730790215296</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="M28" t="n">
-        <v>266.1625141760094</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="N28" t="n">
-        <v>266.1625141760094</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="O28" t="n">
-        <v>266.1625141760094</v>
+        <v>210.162507276104</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1625141760094</v>
+        <v>210.162507276104</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760094</v>
+        <v>266.16251417601</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760094</v>
+        <v>266.16251417601</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909795</v>
+        <v>243.98746989098</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239875</v>
+        <v>233.606855823988</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032151</v>
+        <v>157.6757382032155</v>
       </c>
       <c r="V28" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259943</v>
       </c>
       <c r="W28" t="n">
-        <v>48.1300601973734</v>
+        <v>48.13006019737361</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389707</v>
+        <v>39.61015627389719</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874106</v>
+        <v>882.7966579874112</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942527</v>
+        <v>757.2538204942533</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350252</v>
+        <v>597.6637583350258</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471339</v>
+        <v>406.0329511471344</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141566</v>
+        <v>198.605251714157</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845025</v>
+        <v>63.71974859845027</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514208</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589549</v>
+        <v>171.252799658955</v>
       </c>
       <c r="K29" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528789</v>
       </c>
       <c r="L29" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279524002</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581073</v>
+        <v>926.2253300581085</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.903126212561</v>
+        <v>1212.903126212562</v>
       </c>
       <c r="O29" t="n">
         <v>1458.47366392399</v>
@@ -6491,16 +6491,16 @@
         <v>1781.660986883925</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.589137514412</v>
       </c>
       <c r="U29" t="n">
         <v>1735.552985020827</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621684</v>
+        <v>1627.073153621685</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347174</v>
       </c>
       <c r="X29" t="n">
         <v>1353.629035366663</v>
@@ -6543,46 +6543,46 @@
         <v>35.91669941514208</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102246</v>
+        <v>73.88002543102249</v>
       </c>
       <c r="L30" t="n">
         <v>191.2129445593966</v>
       </c>
       <c r="M30" t="n">
-        <v>372.889591163402</v>
+        <v>372.8895911634021</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7945675741612</v>
+        <v>577.7945675741614</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931956</v>
+        <v>709.4955071931959</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512958</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512958</v>
       </c>
       <c r="R30" t="n">
-        <v>781.2717371851313</v>
+        <v>781.2717371851315</v>
       </c>
       <c r="S30" t="n">
-        <v>587.7456853467431</v>
+        <v>587.7456853467434</v>
       </c>
       <c r="T30" t="n">
-        <v>370.6033382704904</v>
+        <v>370.6033382704905</v>
       </c>
       <c r="U30" t="n">
-        <v>346.6201877928261</v>
+        <v>346.6201877928262</v>
       </c>
       <c r="V30" t="n">
-        <v>319.1816318419157</v>
+        <v>319.1816318419158</v>
       </c>
       <c r="W30" t="n">
-        <v>265.4242247176625</v>
+        <v>265.4242247176626</v>
       </c>
       <c r="X30" t="n">
-        <v>45.9162303343589</v>
+        <v>45.91623033435894</v>
       </c>
       <c r="Y30" t="n">
         <v>35.91669941514208</v>
@@ -6619,49 +6619,49 @@
         <v>35.91669941514208</v>
       </c>
       <c r="J31" t="n">
-        <v>128.2293909268232</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K31" t="n">
-        <v>170.8031857866176</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="L31" t="n">
-        <v>170.8031857866176</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="M31" t="n">
-        <v>170.8031857866176</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="N31" t="n">
-        <v>170.8031857866176</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="O31" t="n">
-        <v>170.8031857866176</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="P31" t="n">
-        <v>170.8031857866176</v>
+        <v>170.8031857866179</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.2082727013262</v>
+        <v>256.2082727013265</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909795</v>
+        <v>243.9874698909797</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239875</v>
+        <v>233.6068558239877</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032152</v>
+        <v>157.6757382032153</v>
       </c>
       <c r="V31" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259941</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737342</v>
+        <v>48.13006019737348</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389708</v>
+        <v>39.61015627389712</v>
       </c>
       <c r="Y31" t="n">
         <v>35.91669941514208</v>
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.789988510278</v>
+        <v>1014.789988510279</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806685</v>
+        <v>877.524294580669</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601007</v>
+        <v>752.8175276601012</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734635</v>
+        <v>594.0635360734639</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581617</v>
+        <v>403.2687994581625</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977744</v>
+        <v>196.6771705977753</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465902</v>
+        <v>62.62773805465901</v>
       </c>
       <c r="I32" t="n">
         <v>35.660759443941</v>
       </c>
       <c r="J32" t="n">
-        <v>151.9003389533364</v>
+        <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
-        <v>357.409754515455</v>
+        <v>357.4097545154548</v>
       </c>
       <c r="L32" t="n">
-        <v>616.2999327831717</v>
+        <v>616.2999327831716</v>
       </c>
       <c r="M32" t="n">
         <v>909.3311676570755</v>
@@ -6719,7 +6719,7 @@
         <v>1640.446650218728</v>
       </c>
       <c r="Q32" t="n">
-        <v>1763.801366338636</v>
+        <v>1763.801366338637</v>
       </c>
       <c r="R32" t="n">
         <v>1783.03797219705</v>
@@ -6731,7 +6731,7 @@
         <v>1761.464280099538</v>
       </c>
       <c r="U32" t="n">
-        <v>1725.264198178543</v>
+        <v>1725.264198178544</v>
       </c>
       <c r="V32" t="n">
         <v>1617.620437351991</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>460.8572095568999</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C33" t="n">
-        <v>460.8572095568999</v>
+        <v>35.660759443941</v>
       </c>
       <c r="D33" t="n">
-        <v>370.67707516888</v>
+        <v>35.660759443941</v>
       </c>
       <c r="E33" t="n">
-        <v>197.1138712902945</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F33" t="n">
-        <v>197.1138712902945</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G33" t="n">
-        <v>197.1138712902945</v>
+        <v>35.660759443941</v>
       </c>
       <c r="H33" t="n">
-        <v>197.1138712902945</v>
+        <v>35.660759443941</v>
       </c>
       <c r="I33" t="n">
-        <v>88.66598205394359</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J33" t="n">
         <v>35.660759443941</v>
@@ -6813,16 +6813,16 @@
         <v>769.0524862168135</v>
       </c>
       <c r="V33" t="n">
-        <v>742.4500008384932</v>
+        <v>533.73078344358</v>
       </c>
       <c r="W33" t="n">
-        <v>473.0514315687846</v>
+        <v>264.3322141738713</v>
       </c>
       <c r="X33" t="n">
-        <v>470.0206699035265</v>
+        <v>44.82421979056766</v>
       </c>
       <c r="Y33" t="n">
-        <v>460.8572095568999</v>
+        <v>35.660759443941</v>
       </c>
     </row>
     <row r="34">
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.660759443941</v>
+        <v>71.98934377257916</v>
       </c>
       <c r="C34" t="n">
-        <v>35.660759443941</v>
+        <v>119.3660703972831</v>
       </c>
       <c r="D34" t="n">
-        <v>36.98565745868319</v>
+        <v>187.8045824360361</v>
       </c>
       <c r="E34" t="n">
-        <v>36.98565745868319</v>
+        <v>259.7145384228899</v>
       </c>
       <c r="F34" t="n">
-        <v>36.98565745868319</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="G34" t="n">
-        <v>36.98565745868319</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="H34" t="n">
-        <v>84.98883956751982</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98883956751982</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="J34" t="n">
-        <v>84.98883956751982</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="K34" t="n">
-        <v>84.98883956751982</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="L34" t="n">
-        <v>84.98883956751982</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="M34" t="n">
-        <v>84.98883956751982</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="N34" t="n">
-        <v>84.98883956751982</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966774</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966774</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966774</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966774</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842376</v>
+        <v>238.7151064842374</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898358</v>
+        <v>229.1705629898356</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416535</v>
+        <v>154.0755159416534</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370225</v>
+        <v>122.9678848370224</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099205</v>
+        <v>46.201979080992</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010586</v>
+        <v>38.51814573010584</v>
       </c>
       <c r="Y34" t="n">
         <v>35.660759443941</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361102</v>
+        <v>623.0190675361097</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513525</v>
+        <v>544.083381551352</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756368</v>
+        <v>477.7066225756364</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338515</v>
+        <v>377.2826389338511</v>
       </c>
       <c r="F35" t="n">
         <v>244.8179102634022</v>
@@ -6935,31 +6935,31 @@
         <v>51.57576979998706</v>
       </c>
       <c r="J35" t="n">
-        <v>244.900543598745</v>
+        <v>51.57576979998706</v>
       </c>
       <c r="K35" t="n">
-        <v>244.900543598745</v>
+        <v>51.57576979998706</v>
       </c>
       <c r="L35" t="n">
-        <v>291.6213860795052</v>
+        <v>98.29661228074724</v>
       </c>
       <c r="M35" t="n">
-        <v>372.4832851664526</v>
+        <v>306.0837357090952</v>
       </c>
       <c r="N35" t="n">
-        <v>456.2703381680976</v>
+        <v>381.4116288447877</v>
       </c>
       <c r="O35" t="n">
-        <v>714.126539444426</v>
+        <v>415.6322635374555</v>
       </c>
       <c r="P35" t="n">
-        <v>714.126539444426</v>
+        <v>670.0297874835837</v>
       </c>
       <c r="Q35" t="n">
-        <v>894.6504963510844</v>
+        <v>850.5537443902421</v>
       </c>
       <c r="R35" t="n">
-        <v>971.0563429962473</v>
+        <v>926.959591035405</v>
       </c>
       <c r="S35" t="n">
         <v>971.0563429962473</v>
@@ -6971,16 +6971,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984146</v>
+        <v>992.5294845984142</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413458</v>
+        <v>926.0271658413453</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782777</v>
+        <v>837.4175233782772</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447614</v>
+        <v>726.0777262447608</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.8368647496023</v>
+        <v>705.0201754169483</v>
       </c>
       <c r="C36" t="n">
-        <v>20.8368647496023</v>
+        <v>515.607901149912</v>
       </c>
       <c r="D36" t="n">
-        <v>20.8368647496023</v>
+        <v>354.8277849109438</v>
       </c>
       <c r="E36" t="n">
-        <v>20.8368647496023</v>
+        <v>181.2645810323582</v>
       </c>
       <c r="F36" t="n">
         <v>20.8368647496023</v>
@@ -7038,28 +7038,28 @@
         <v>778.040785785756</v>
       </c>
       <c r="R36" t="n">
-        <v>641.9601789281019</v>
+        <v>778.040785785756</v>
       </c>
       <c r="S36" t="n">
-        <v>636.0230591360938</v>
+        <v>778.040785785756</v>
       </c>
       <c r="T36" t="n">
-        <v>418.880712059841</v>
+        <v>778.040785785756</v>
       </c>
       <c r="U36" t="n">
-        <v>418.880712059841</v>
+        <v>778.040785785756</v>
       </c>
       <c r="V36" t="n">
-        <v>418.880712059841</v>
+        <v>778.040785785756</v>
       </c>
       <c r="W36" t="n">
-        <v>418.880712059841</v>
+        <v>705.0201754169483</v>
       </c>
       <c r="X36" t="n">
-        <v>199.3727176765374</v>
+        <v>705.0201754169483</v>
       </c>
       <c r="Y36" t="n">
-        <v>199.3727176765374</v>
+        <v>705.0201754169483</v>
       </c>
     </row>
     <row r="37">
@@ -7114,10 +7114,10 @@
         <v>20.8368647496023</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="R37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="S37" t="n">
         <v>56.03780166411087</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361097</v>
+        <v>623.0190675361102</v>
       </c>
       <c r="C38" t="n">
-        <v>544.083381551352</v>
+        <v>544.0833815513525</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756364</v>
+        <v>477.7066225756368</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2826389338511</v>
+        <v>377.2826389338515</v>
       </c>
       <c r="F38" t="n">
         <v>244.8179102634022</v>
@@ -7169,37 +7169,37 @@
         <v>20.8368647496023</v>
       </c>
       <c r="I38" t="n">
-        <v>20.8368647496023</v>
+        <v>37.62771820108006</v>
       </c>
       <c r="J38" t="n">
-        <v>20.8368647496023</v>
+        <v>230.952491999838</v>
       </c>
       <c r="K38" t="n">
-        <v>278.6930660259308</v>
+        <v>230.952491999838</v>
       </c>
       <c r="L38" t="n">
-        <v>325.413908506691</v>
+        <v>277.6733344805982</v>
       </c>
       <c r="M38" t="n">
-        <v>583.2701097830195</v>
+        <v>358.5352335675456</v>
       </c>
       <c r="N38" t="n">
-        <v>658.5980029187119</v>
+        <v>433.863126703238</v>
       </c>
       <c r="O38" t="n">
-        <v>787.4457135339868</v>
+        <v>691.7193279795665</v>
       </c>
       <c r="P38" t="n">
-        <v>1041.843237480115</v>
+        <v>691.7193279795665</v>
       </c>
       <c r="Q38" t="n">
-        <v>1041.843237480115</v>
+        <v>872.2432848862248</v>
       </c>
       <c r="R38" t="n">
-        <v>1041.843237480115</v>
+        <v>948.6491315313878</v>
       </c>
       <c r="S38" t="n">
-        <v>1041.843237480115</v>
+        <v>992.7458834922301</v>
       </c>
       <c r="T38" t="n">
         <v>1041.843237480115</v>
@@ -7208,16 +7208,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984142</v>
+        <v>992.5294845984147</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413453</v>
+        <v>926.0271658413458</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782772</v>
+        <v>837.4175233782777</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447608</v>
+        <v>726.0777262447614</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>371.0292552556068</v>
+        <v>55.81675214293983</v>
       </c>
       <c r="C39" t="n">
-        <v>181.6169809885706</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D39" t="n">
         <v>20.8368647496023</v>
@@ -7272,31 +7272,31 @@
         <v>778.040785785756</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.1019414684217</v>
+        <v>778.040785785756</v>
       </c>
       <c r="R39" t="n">
-        <v>771.1019414684217</v>
+        <v>778.040785785756</v>
       </c>
       <c r="S39" t="n">
-        <v>771.1019414684217</v>
+        <v>778.040785785756</v>
       </c>
       <c r="T39" t="n">
-        <v>553.9595943921689</v>
+        <v>778.040785785756</v>
       </c>
       <c r="U39" t="n">
-        <v>553.9595943921689</v>
+        <v>538.4164731626362</v>
       </c>
       <c r="V39" t="n">
-        <v>553.9595943921689</v>
+        <v>538.4164731626362</v>
       </c>
       <c r="W39" t="n">
-        <v>553.9595943921689</v>
+        <v>275.3247465262435</v>
       </c>
       <c r="X39" t="n">
-        <v>371.0292552556068</v>
+        <v>55.81675214293983</v>
       </c>
       <c r="Y39" t="n">
-        <v>371.0292552556068</v>
+        <v>55.81675214293983</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F40" t="n">
         <v>56.03780166411087</v>
@@ -7375,7 +7375,7 @@
         <v>20.8368647496023</v>
       </c>
       <c r="Y40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753163</v>
+        <v>818.4263542753171</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564246</v>
+        <v>708.1276389564254</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465749</v>
+        <v>610.3878506465755</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706555</v>
+        <v>478.6008376706561</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660722</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J41" t="n">
         <v>190.6518442323786</v>
@@ -7415,25 +7415,25 @@
         <v>422.5915955308619</v>
       </c>
       <c r="L41" t="n">
-        <v>707.9121095349434</v>
+        <v>469.3124380116221</v>
       </c>
       <c r="M41" t="n">
-        <v>788.7740086218907</v>
+        <v>550.1743370985694</v>
       </c>
       <c r="N41" t="n">
-        <v>1068.036283169121</v>
+        <v>679.6515597895263</v>
       </c>
       <c r="O41" t="n">
-        <v>1102.256917861788</v>
+        <v>952.4718660055154</v>
       </c>
       <c r="P41" t="n">
-        <v>1325.915536757532</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q41" t="n">
         <v>1325.915536757532</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.58247835231</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S41" t="n">
         <v>1384.940325262768</v>
@@ -7442,19 +7442,19 @@
         <v>1403.298774200268</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.065670889991</v>
+        <v>1394.065670889992</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.388888674157</v>
+        <v>1313.388888674158</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.523540582954</v>
+        <v>1215.523540582955</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.550868785752</v>
+        <v>1095.550868785753</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181015</v>
+        <v>952.8480423181022</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>201.6291793625909</v>
+        <v>712.2492861513514</v>
       </c>
       <c r="C42" t="n">
-        <v>201.6291793625909</v>
+        <v>522.8370118843151</v>
       </c>
       <c r="D42" t="n">
-        <v>201.6291793625909</v>
+        <v>362.0568956453468</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06597548400536</v>
+        <v>188.4936917667613</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988576</v>
+        <v>66.02930149988578</v>
       </c>
       <c r="L42" t="n">
         <v>183.3622206282599</v>
@@ -7506,34 +7506,34 @@
         <v>701.644783262059</v>
       </c>
       <c r="P42" t="n">
-        <v>785.269896520159</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.3310522028247</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="R42" t="n">
-        <v>778.3310522028247</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="S42" t="n">
-        <v>778.3310522028247</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="T42" t="n">
-        <v>778.3310522028247</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="U42" t="n">
-        <v>714.1074667286655</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="V42" t="n">
-        <v>471.0277486322996</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="W42" t="n">
-        <v>201.6291793625909</v>
+        <v>759.3155385792139</v>
       </c>
       <c r="X42" t="n">
-        <v>201.6291793625909</v>
+        <v>759.3155385792139</v>
       </c>
       <c r="Y42" t="n">
-        <v>201.6291793625909</v>
+        <v>712.2492861513514</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J43" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="K43" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="L43" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="M43" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="N43" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="O43" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="P43" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="R43" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="S43" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="T43" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323076</v>
+        <v>82.00555512323083</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931777</v>
+        <v>77.86490262931781</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753167</v>
+        <v>818.4263542753168</v>
       </c>
       <c r="C44" t="n">
-        <v>708.127638956425</v>
+        <v>708.1276389564252</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465752</v>
+        <v>610.3878506465754</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706559</v>
+        <v>478.6008376706561</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660726</v>
+        <v>314.7730796660728</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J44" t="n">
         <v>190.6518442323786</v>
       </c>
       <c r="K44" t="n">
-        <v>251.4991004732619</v>
+        <v>422.5915955308619</v>
       </c>
       <c r="L44" t="n">
-        <v>536.8196144773434</v>
+        <v>469.3124380116221</v>
       </c>
       <c r="M44" t="n">
-        <v>617.6815135642908</v>
+        <v>550.1743370985694</v>
       </c>
       <c r="N44" t="n">
-        <v>693.0094066999832</v>
+        <v>679.6515597895263</v>
       </c>
       <c r="O44" t="n">
-        <v>965.8297129159723</v>
+        <v>952.4718660055154</v>
       </c>
       <c r="P44" t="n">
-        <v>1189.488331811716</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q44" t="n">
-        <v>1339.273383667989</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R44" t="n">
-        <v>1384.940325262768</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S44" t="n">
         <v>1384.940325262768</v>
@@ -7679,19 +7679,19 @@
         <v>1403.298774200268</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.065670889991</v>
+        <v>1394.065670889992</v>
       </c>
       <c r="V44" t="n">
         <v>1313.388888674157</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.523540582954</v>
+        <v>1215.523540582955</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.550868785752</v>
+        <v>1095.550868785753</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181019</v>
+        <v>952.848042318102</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>217.4782497510416</v>
+        <v>565.7894867408257</v>
       </c>
       <c r="C45" t="n">
-        <v>28.06597548400536</v>
+        <v>376.3772124737894</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06597548400536</v>
+        <v>351.8762545894867</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400536</v>
+        <v>178.3130507109012</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400536</v>
+        <v>178.3130507109012</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K45" t="n">
         <v>66.02930149988578</v>
@@ -7743,34 +7743,34 @@
         <v>701.644783262059</v>
       </c>
       <c r="P45" t="n">
-        <v>785.269896520159</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.269896520159</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="R45" t="n">
-        <v>649.1892896625048</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="S45" t="n">
-        <v>649.1892896625048</v>
+        <v>591.7438446817707</v>
       </c>
       <c r="T45" t="n">
-        <v>432.046942586252</v>
+        <v>591.7438446817707</v>
       </c>
       <c r="U45" t="n">
-        <v>432.046942586252</v>
+        <v>591.7438446817707</v>
       </c>
       <c r="V45" t="n">
-        <v>432.046942586252</v>
+        <v>591.7438446817707</v>
       </c>
       <c r="W45" t="n">
-        <v>406.0925846453071</v>
+        <v>565.7894867408257</v>
       </c>
       <c r="X45" t="n">
-        <v>396.0141026779767</v>
+        <v>565.7894867408257</v>
       </c>
       <c r="Y45" t="n">
-        <v>396.0141026779767</v>
+        <v>565.7894867408257</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="M46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="N46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="O46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="P46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="R46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="S46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="T46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323076</v>
+        <v>82.00555512323083</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931777</v>
+        <v>77.86490262931781</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
   </sheetData>
@@ -8532,22 +8532,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.2365425770137</v>
+        <v>171.3658051887314</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
         <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>163.4361383816801</v>
+        <v>163.3068757699624</v>
       </c>
       <c r="O9" t="n">
         <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>166.6480266854964</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8775,7 +8775,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>301.7768813099999</v>
+        <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
         <v>292.1370682466384</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247655</v>
+        <v>195.9389762247656</v>
       </c>
       <c r="C11" t="n">
-        <v>131.1881982748417</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
         <v>193.3306479085684</v>
@@ -23270,10 +23270,10 @@
         <v>225.0509854869457</v>
       </c>
       <c r="G11" t="n">
-        <v>240.6899088095807</v>
+        <v>238.1124276073452</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554828</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929903</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416383</v>
+        <v>181.6344501416384</v>
       </c>
       <c r="Y11" t="n">
         <v>204.1373032653821</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247655</v>
+        <v>195.9389762247656</v>
       </c>
       <c r="C14" t="n">
-        <v>172.057233228111</v>
+        <v>172.0572332281111</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.6238954891596</v>
       </c>
       <c r="E14" t="n">
         <v>193.3306479085684</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0509854869457</v>
+        <v>150.9235090758722</v>
       </c>
       <c r="G14" t="n">
-        <v>52.19197549033356</v>
+        <v>240.6899088095808</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554828</v>
+        <v>168.8731344554829</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240824</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.733281229299</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00227733958204</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>84.76739330356932</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1373032653821</v>
+        <v>204.1373032653822</v>
       </c>
     </row>
     <row r="15">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.192202140984591e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-2.131628207280301e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.984279490192421e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>877911.8695717243</v>
+        <v>877911.8695717244</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>551207.4969852873</v>
+        <v>551207.4969852874</v>
       </c>
       <c r="C2" t="n">
         <v>551207.4969852872</v>
@@ -26323,13 +26323,13 @@
         <v>474834.6429682089</v>
       </c>
       <c r="F2" t="n">
-        <v>474834.6429682087</v>
+        <v>474834.6429682088</v>
       </c>
       <c r="G2" t="n">
+        <v>552324.0930365853</v>
+      </c>
+      <c r="H2" t="n">
         <v>552324.0930365851</v>
-      </c>
-      <c r="H2" t="n">
-        <v>552324.093036585</v>
       </c>
       <c r="I2" t="n">
         <v>552324.0930365851</v>
@@ -26338,7 +26338,7 @@
         <v>552324.0930365847</v>
       </c>
       <c r="K2" t="n">
-        <v>552324.0930365848</v>
+        <v>552324.0930365847</v>
       </c>
       <c r="L2" t="n">
         <v>552324.0930365848</v>
@@ -26347,7 +26347,7 @@
         <v>552324.0930365846</v>
       </c>
       <c r="N2" t="n">
-        <v>552324.0930365847</v>
+        <v>552324.0930365844</v>
       </c>
       <c r="O2" t="n">
         <v>552324.0930365846</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913329</v>
+        <v>95439.52541913337</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143496.2830068792</v>
+        <v>143496.2830068793</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262469</v>
+        <v>96101.6933126248</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232282</v>
+        <v>46197.3662923228</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.9148592437</v>
+        <v>72254.91485924364</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,13 +26439,13 @@
         <v>361023.990543289</v>
       </c>
       <c r="J4" t="n">
-        <v>361792.602703913</v>
+        <v>361792.6027039129</v>
       </c>
       <c r="K4" t="n">
-        <v>361792.602703913</v>
+        <v>361792.6027039129</v>
       </c>
       <c r="L4" t="n">
-        <v>361777.8127365343</v>
+        <v>361777.8127365344</v>
       </c>
       <c r="M4" t="n">
         <v>360967.8753632159</v>
@@ -26454,10 +26454,10 @@
         <v>360967.8753632159</v>
       </c>
       <c r="O4" t="n">
-        <v>361354.9380269335</v>
+        <v>361354.9380269336</v>
       </c>
       <c r="P4" t="n">
-        <v>361354.9380269335</v>
+        <v>361354.9380269336</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26482,7 @@
         <v>28642.95693774779</v>
       </c>
       <c r="G5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582419</v>
       </c>
       <c r="H5" t="n">
         <v>38672.33876582418</v>
@@ -26491,13 +26491,13 @@
         <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.6772201635</v>
+        <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
         <v>47449.67722016352</v>
       </c>
       <c r="L5" t="n">
-        <v>47324.7475828481</v>
+        <v>47324.74758284811</v>
       </c>
       <c r="M5" t="n">
         <v>40913.29559868731</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113788.2770456921</v>
+        <v>113783.810661487</v>
       </c>
       <c r="C6" t="n">
-        <v>113788.2770456919</v>
+        <v>113783.8106614867</v>
       </c>
       <c r="D6" t="n">
-        <v>113106.6394067121</v>
+        <v>113103.4463238637</v>
       </c>
       <c r="E6" t="n">
-        <v>-123350.5516483202</v>
+        <v>-123660.5094485937</v>
       </c>
       <c r="F6" t="n">
-        <v>155775.5635303938</v>
+        <v>155465.6057301204</v>
       </c>
       <c r="G6" t="n">
-        <v>57188.23830833865</v>
+        <v>57188.2383083387</v>
       </c>
       <c r="H6" t="n">
-        <v>152627.7637274718</v>
+        <v>152627.763727472</v>
       </c>
       <c r="I6" t="n">
         <v>152627.763727472</v>
       </c>
       <c r="J6" t="n">
-        <v>-414.4698943710973</v>
+        <v>-414.4698943710537</v>
       </c>
       <c r="K6" t="n">
-        <v>143081.8131125083</v>
+        <v>143081.8131125082</v>
       </c>
       <c r="L6" t="n">
-        <v>47119.83940457764</v>
+        <v>47119.83940457746</v>
       </c>
       <c r="M6" t="n">
         <v>104245.5557823586</v>
       </c>
       <c r="N6" t="n">
-        <v>150442.9220746815</v>
+        <v>150442.9220746812</v>
       </c>
       <c r="O6" t="n">
-        <v>74917.11232153414</v>
+        <v>74917.11232153408</v>
       </c>
       <c r="P6" t="n">
-        <v>147172.0271807777</v>
+        <v>147172.0271807776</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="G2" t="n">
         <v>297.4476709269844</v>
@@ -26707,10 +26707,10 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J2" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K2" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L2" t="n">
         <v>214.3124603908652</v>
@@ -26744,25 +26744,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="I3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="J3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="L3" t="n">
         <v>101.1713840758396</v>
@@ -26796,13 +26796,13 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="F4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="G4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="H4" t="n">
         <v>188.4979333192472</v>
@@ -26811,13 +26811,13 @@
         <v>188.4979333192472</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892758</v>
+        <v>448.9587426892762</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9587426892759</v>
+        <v>448.9587426892761</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492625</v>
+        <v>445.7594930492626</v>
       </c>
       <c r="M4" t="n">
         <v>260.4608093700288</v>
@@ -26826,10 +26826,10 @@
         <v>260.4608093700288</v>
       </c>
       <c r="O4" t="n">
-        <v>350.824693550067</v>
+        <v>350.8246935500671</v>
       </c>
       <c r="P4" t="n">
-        <v>350.824693550067</v>
+        <v>350.8246935500671</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739167</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008434</v>
+        <v>94.18534375008423</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.1271166407809</v>
+        <v>120.127116640781</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540352</v>
+        <v>57.74670786540349</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929166</v>
+        <v>63.13594470929155</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792338</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.460809370029</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003821</v>
+        <v>90.36388418003833</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739167</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008434</v>
+        <v>94.18534375008423</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792338</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E8" t="n">
-        <v>371.6088275148272</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27892,7 +27892,7 @@
         <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>73.5786919263081</v>
+        <v>73.70860737949914</v>
       </c>
       <c r="Q8" t="n">
         <v>133.6328276992101</v>
@@ -27950,7 +27950,7 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>114.855819447717</v>
+        <v>111.6565698077035</v>
       </c>
       <c r="J9" t="n">
         <v>73.03491363274843</v>
@@ -27974,7 +27974,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>31.82978284919219</v>
       </c>
       <c r="R9" t="n">
         <v>148.2309527983001</v>
@@ -27983,13 +27983,13 @@
         <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>213.0301613335635</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
         <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
-        <v>237.4496712753888</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
         <v>266.7045835770116</v>
@@ -28111,28 +28111,28 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J11" t="n">
-        <v>76.78161896459403</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K11" t="n">
-        <v>6.727192146300951</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L11" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N11" t="n">
         <v>112.4091523741034</v>
       </c>
       <c r="O11" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>114.2951416100155</v>
+        <v>112.9095207196072</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.71173703742195</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R11" t="n">
         <v>178.1482641530678</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50.0255642427248</v>
+        <v>137.4962798267824</v>
       </c>
       <c r="C12" t="n">
         <v>178.1482641530678</v>
@@ -28187,10 +28187,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,10 +28211,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.86945587416103</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7198007890777</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S12" t="n">
         <v>178.1482641530678</v>
@@ -28223,7 +28223,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530678</v>
+        <v>48.73013617764134</v>
       </c>
       <c r="V12" t="n">
         <v>178.1482641530678</v>
@@ -28232,10 +28232,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="X12" t="n">
+        <v>28.81498112022334</v>
+      </c>
+      <c r="Y12" t="n">
         <v>178.1482641530678</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>34.88635281477843</v>
       </c>
     </row>
     <row r="13">
@@ -28245,49 +28245,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.1482641530678</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>178.1482641530678</v>
+        <v>168.2203626550042</v>
       </c>
       <c r="D13" t="n">
-        <v>178.1482641530678</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H13" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I13" t="n">
-        <v>164.852968067965</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J13" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="K13" t="n">
-        <v>67.02998013918997</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L13" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="M13" t="n">
+        <v>25.21686539889342</v>
+      </c>
+      <c r="N13" t="n">
+        <v>16.52015736928131</v>
+      </c>
+      <c r="O13" t="n">
+        <v>37.47888399777676</v>
+      </c>
+      <c r="P13" t="n">
         <v>178.1482641530678</v>
-      </c>
-      <c r="N13" t="n">
-        <v>125.2398827373235</v>
-      </c>
-      <c r="O13" t="n">
-        <v>37.47888399777679</v>
-      </c>
-      <c r="P13" t="n">
-        <v>58.47859890024886</v>
       </c>
       <c r="Q13" t="n">
         <v>127.2169859636892</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="J14" t="n">
-        <v>76.78161896459403</v>
+        <v>160.7168484597797</v>
       </c>
       <c r="K14" t="n">
-        <v>6.727192146300951</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="L14" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>95.66841810810114</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.71173703742195</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="15">
@@ -28403,16 +28403,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>153.1526764267197</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28424,10 +28424,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390259</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.86945587416103</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7198007890777</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1482641530678</v>
+        <v>3.092858000757039</v>
       </c>
       <c r="T15" t="n">
-        <v>167.2753516317194</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W15" t="n">
-        <v>78.20665025776441</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.1482641530678</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
@@ -28494,10 +28494,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>178.1482641530678</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>178.1482641530678</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H16" t="n">
         <v>165.8243976546666</v>
@@ -28506,52 +28506,52 @@
         <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2396075829089</v>
+        <v>166.7821544000635</v>
       </c>
       <c r="K16" t="n">
-        <v>175.3452695309143</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L16" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M16" t="n">
-        <v>25.21686539889344</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="N16" t="n">
-        <v>178.1482641530678</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="P16" t="n">
-        <v>58.47859890024886</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="17">
@@ -28582,13 +28582,13 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I17" t="n">
-        <v>241.009769215476</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J17" t="n">
-        <v>265.2795522838412</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300951</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28600,25 +28600,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108874</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q17" t="n">
-        <v>254.1312884878661</v>
+        <v>278.2096703566692</v>
       </c>
       <c r="R17" t="n">
-        <v>194.8815453823668</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S17" t="n">
-        <v>227.5169945584482</v>
+        <v>264.5852354411523</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4658813998192</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V17" t="n">
         <v>297.4476709269844</v>
@@ -28664,7 +28664,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,31 +28685,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>160.281612441489</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T18" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>48.7301361776414</v>
+        <v>48.73013617764136</v>
       </c>
       <c r="V18" t="n">
-        <v>52.15098759615503</v>
+        <v>73.31697910154216</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022334</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.88635281477841</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28746,22 +28746,22 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K19" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O19" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28819,13 +28819,13 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I20" t="n">
-        <v>241.009769215476</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78161896459403</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300951</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28834,16 +28834,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>70.87259566001093</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108874</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2096703566691</v>
+        <v>278.2096703566692</v>
       </c>
       <c r="R20" t="n">
         <v>297.4476709269844</v>
@@ -28852,10 +28852,10 @@
         <v>297.4476709269844</v>
       </c>
       <c r="T20" t="n">
+        <v>264.5852354411521</v>
+      </c>
+      <c r="U20" t="n">
         <v>297.4476709269844</v>
-      </c>
-      <c r="U20" t="n">
-        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269844</v>
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28892,16 +28892,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I21" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,10 +28922,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890777</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S21" t="n">
         <v>191.5907913200043</v>
@@ -28940,13 +28940,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>220.7608557926882</v>
       </c>
       <c r="X21" t="n">
-        <v>38.55671405541506</v>
+        <v>28.81498112022336</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.88635281477843</v>
+        <v>34.88635281477838</v>
       </c>
     </row>
     <row r="22">
@@ -28983,22 +28983,22 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K22" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O22" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29062,7 +29062,7 @@
         <v>265.2795522838412</v>
       </c>
       <c r="K23" t="n">
-        <v>195.2251254655481</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,22 +29077,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108874</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71173703742195</v>
+        <v>159.4154270962071</v>
       </c>
       <c r="R23" t="n">
-        <v>268.2968974519412</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4658813998192</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269844</v>
@@ -29120,13 +29120,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7446044746268</v>
@@ -29135,10 +29135,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,10 +29159,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7198007890777</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S24" t="n">
         <v>191.5907913200043</v>
@@ -29171,16 +29171,16 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U24" t="n">
-        <v>48.73013617764144</v>
+        <v>48.73013617764141</v>
       </c>
       <c r="V24" t="n">
-        <v>129.8526950239702</v>
+        <v>127.0951116317119</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>78.20665025776438</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022339</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29220,22 +29220,22 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K25" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O25" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="C26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="D26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="F26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="G26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="H26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="I26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="J26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="M26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4847505240008</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="O26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="P26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="R26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="27">
@@ -29357,25 +29357,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>111.4651896718596</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H27" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390259</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,10 +29396,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S27" t="n">
         <v>191.5907913200043</v>
@@ -29408,19 +29408,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>213.484750524001</v>
+        <v>188.6011882961831</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="28">
@@ -29445,7 +29445,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>213.0044198635271</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H28" t="n">
         <v>165.8243976546666</v>
@@ -29457,49 +29457,49 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K28" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M28" t="n">
-        <v>213.484750524001</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O28" t="n">
-        <v>37.47888399777679</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="P28" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.2169859636892</v>
+        <v>183.7826494989478</v>
       </c>
       <c r="R28" t="n">
         <v>203.4299611556341</v>
       </c>
       <c r="S28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="C29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="D29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="F29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="G29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="H29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="I29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="J29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="M29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="N29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="O29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="P29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="R29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="30">
@@ -29612,7 +29612,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390259</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,10 +29633,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R30" t="n">
-        <v>122.9894063555751</v>
+        <v>122.989406355575</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29645,19 +29645,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="31">
@@ -29691,52 +29691,52 @@
         <v>164.852968067965</v>
       </c>
       <c r="J31" t="n">
-        <v>213.484750524001</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K31" t="n">
-        <v>110.0338133309015</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O31" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P31" t="n">
-        <v>58.47859890024886</v>
+        <v>194.7275750330527</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="R31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="32">
@@ -29770,10 +29770,10 @@
         <v>214.3124603908652</v>
       </c>
       <c r="J32" t="n">
-        <v>194.195335640751</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407508</v>
       </c>
       <c r="L32" t="n">
         <v>214.3124603908652</v>
@@ -29831,10 +29831,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>69.89398203243891</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29846,10 +29846,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29885,13 +29885,13 @@
         <v>214.3124603908652</v>
       </c>
       <c r="V33" t="n">
-        <v>214.3124603908652</v>
+        <v>7.680435169901102</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>214.3124603908652</v>
@@ -29904,25 +29904,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="D34" t="n">
-        <v>146.5209310736826</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>139.2698537071206</v>
       </c>
       <c r="G34" t="n">
         <v>168.7007749271525</v>
       </c>
       <c r="H34" t="n">
-        <v>214.3124603908652</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I34" t="n">
         <v>164.852968067965</v>
@@ -29943,7 +29943,7 @@
         <v>16.52015736928131</v>
       </c>
       <c r="O34" t="n">
-        <v>214.3124603908652</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P34" t="n">
         <v>58.47859890024885</v>
@@ -30007,7 +30007,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0591682562687</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K35" t="n">
         <v>6.727192146300908</v>
@@ -30016,16 +30016,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>128.2072973145461</v>
       </c>
       <c r="N35" t="n">
-        <v>8.544605925204607</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>225.8945117006674</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.0919723510887</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="Q35" t="n">
         <v>272.0591682562687</v>
@@ -30034,7 +30034,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="S35" t="n">
-        <v>227.5169945584482</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T35" t="n">
         <v>272.0591682562687</v>
@@ -30062,19 +30062,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446044746268</v>
@@ -30110,13 +30110,13 @@
         <v>6.869455874161009</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S36" t="n">
-        <v>185.7130427259164</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
         <v>237.2280694968886</v>
@@ -30125,10 +30125,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>194.4141793118919</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30186,13 +30186,13 @@
         <v>58.47859890024885</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.2169859636892</v>
+        <v>162.7734878975363</v>
       </c>
       <c r="R37" t="n">
         <v>203.4299611556341</v>
       </c>
       <c r="S37" t="n">
-        <v>270.9945463000276</v>
+        <v>235.4380443661805</v>
       </c>
       <c r="T37" t="n">
         <v>223.761558450323</v>
@@ -30241,40 +30241,40 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
-        <v>241.009769215476</v>
+        <v>257.9702272472717</v>
       </c>
       <c r="J38" t="n">
-        <v>76.78161896459402</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="K38" t="n">
-        <v>267.1880015163297</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>178.7821234236173</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>95.58290497233037</v>
+        <v>225.8945117006674</v>
       </c>
       <c r="P38" t="n">
+        <v>15.0919723510887</v>
+      </c>
+      <c r="Q38" t="n">
         <v>272.0591682562687</v>
       </c>
-      <c r="Q38" t="n">
-        <v>89.71173703742193</v>
-      </c>
       <c r="R38" t="n">
-        <v>194.8815453823668</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="S38" t="n">
-        <v>227.5169945584482</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4658813998192</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="U38" t="n">
         <v>250.1505414926498</v>
@@ -30302,10 +30302,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>152.8880630049618</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R39" t="n">
         <v>134.7198007890776</v>
@@ -30353,19 +30353,19 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243774206982835</v>
       </c>
       <c r="X39" t="n">
-        <v>36.21187869427413</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30390,7 +30390,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>174.4833841522937</v>
       </c>
       <c r="G40" t="n">
         <v>168.7007749271525</v>
@@ -30447,7 +30447,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>252.6977747480155</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -30487,22 +30487,22 @@
         <v>241.009769215476</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>54.69629248006521</v>
+      </c>
+      <c r="O41" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>205.9943246581187</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="Q41" t="n">
-        <v>89.71173703742193</v>
+        <v>241.009769215476</v>
       </c>
       <c r="R41" t="n">
         <v>241.009769215476</v>
@@ -30539,16 +30539,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>148.7446044746268</v>
@@ -30560,7 +30560,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390257</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161012</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890776</v>
@@ -30593,19 +30593,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>173.646719877471</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>176.7886962304417</v>
       </c>
     </row>
     <row r="43">
@@ -30639,22 +30639,22 @@
         <v>164.852968067965</v>
       </c>
       <c r="J43" t="n">
-        <v>120.2396075829089</v>
+        <v>223.3382420038076</v>
       </c>
       <c r="K43" t="n">
         <v>67.02998013918996</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M43" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N43" t="n">
-        <v>119.6187917901799</v>
+        <v>16.52015736928132</v>
       </c>
       <c r="O43" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777677</v>
       </c>
       <c r="P43" t="n">
         <v>58.47859890024885</v>
@@ -30721,16 +30721,16 @@
         <v>241.009769215476</v>
       </c>
       <c r="K44" t="n">
-        <v>68.1890671370922</v>
+        <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>54.69629248006521</v>
       </c>
       <c r="O44" t="n">
         <v>241.009769215476</v>
@@ -30745,7 +30745,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="S44" t="n">
-        <v>227.5169945584482</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T44" t="n">
         <v>241.009769215476</v>
@@ -30773,22 +30773,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>134.9163667711189</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>125.7355245857741</v>
@@ -30797,7 +30797,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390257</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,16 +30818,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161005</v>
+        <v>6.869455874161012</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280694968886</v>
@@ -30839,7 +30839,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
-        <v>207.3352172918136</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30879,22 +30879,22 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K46" t="n">
-        <v>67.02998013918995</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15181624817885</v>
+        <v>135.2504506690776</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889341</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928132</v>
       </c>
       <c r="O46" t="n">
-        <v>140.5775184186754</v>
+        <v>37.47888399777677</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024884</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2169859636892</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521935</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122628</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729624</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L12" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P12" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R12" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S12" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600458</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S13" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I14" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521935</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122628</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729624</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L15" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P15" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R15" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S15" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H16" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600458</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S16" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521935</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122628</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729624</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L18" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P18" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R18" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S18" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H19" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600458</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S19" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I20" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521935</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122628</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729624</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L21" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P21" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R21" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S21" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H22" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600458</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S22" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I23" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521935</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122628</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729624</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L24" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P24" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R24" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S24" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H25" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600458</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S25" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I26" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521935</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122628</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729624</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L27" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P27" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R27" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S27" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H28" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600458</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S28" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I29" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521935</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122628</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729624</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L30" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P30" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R30" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S30" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600458</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S31" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I41" t="n">
         <v>15.68003933501027</v>
@@ -34132,31 +34132,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246061</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727861</v>
+        <v>64.1833294172786</v>
       </c>
       <c r="M41" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032869</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401906</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556025</v>
       </c>
       <c r="P41" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521939</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R41" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T41" t="n">
         <v>1.780413000168794</v>
@@ -34205,28 +34205,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I42" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729629</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K42" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447583</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133255</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427557</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134027</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862174</v>
+        <v>41.55471433862173</v>
       </c>
       <c r="Q42" t="n">
         <v>27.77822605795505</v>
@@ -34238,7 +34238,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971369</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431670529375089</v>
@@ -34278,22 +34278,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H43" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014382</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L43" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M43" t="n">
         <v>28.59833074786395</v>
@@ -34302,10 +34302,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06531301221261</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q43" t="n">
         <v>15.27687899545177</v>
@@ -34317,10 +34317,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679438</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590786</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631739</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217856</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I44" t="n">
-        <v>15.68003933501028</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645946</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246063</v>
+        <v>51.73619878246061</v>
       </c>
       <c r="L44" t="n">
-        <v>64.18332941727861</v>
+        <v>64.1833294172786</v>
       </c>
       <c r="M44" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032869</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401906</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556028</v>
+        <v>68.52759814556025</v>
       </c>
       <c r="P44" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521939</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178823</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318175</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610835</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168795</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705391</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2176139204650135</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H45" t="n">
         <v>2.10169233712263</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729631</v>
+        <v>7.492409103729629</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000176</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447583</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133257</v>
+        <v>55.13840432133255</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427557</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134027</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862174</v>
+        <v>41.55471433862173</v>
       </c>
       <c r="Q45" t="n">
         <v>27.77822605795505</v>
       </c>
       <c r="R45" t="n">
-        <v>13.51115200922251</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935664</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971373</v>
+        <v>0.8771368109971369</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431670529375089</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H46" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014384</v>
+        <v>5.486474402014382</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L46" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786396</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309195</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06531301221261</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27687899545178</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542662</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629253</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T46" t="n">
-        <v>0.779517221567944</v>
+        <v>0.7795172215679438</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00995128367959079</v>
+        <v>0.009951283679590786</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35155,7 +35155,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -35188,7 +35188,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.069987028295762</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="M9" t="n">
         <v>3.199249640013477</v>
       </c>
       <c r="N9" t="n">
-        <v>3.199249640013477</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>101.3666451884738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>188.4979333192472</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641141</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="N11" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4979333192472</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P11" t="n">
-        <v>99.20316925892674</v>
+        <v>97.81754836851852</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>88.43652711564584</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L12" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M12" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="O12" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,49 +35541,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5313434880997079</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.69108318109545</v>
+        <v>1.763181683031872</v>
       </c>
       <c r="D13" t="n">
-        <v>32.96561390235709</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.22138193462112</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.447489225915303</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.32386649840119</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.29529608510274</v>
       </c>
       <c r="J13" t="n">
-        <v>57.90865657015885</v>
+        <v>57.90865657015883</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.1182840138778</v>
       </c>
       <c r="L13" t="n">
         <v>145.9964479048889</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9313987541744</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>108.7197253680422</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>119.6696652528189</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>83.93522949518564</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>171.4210720067668</v>
       </c>
       <c r="L14" t="n">
-        <v>188.4979333192472</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M14" t="n">
-        <v>188.4979333192472</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N14" t="n">
-        <v>171.757199053245</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O14" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P14" t="n">
-        <v>163.0562918019791</v>
+        <v>163.056291801979</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>88.43652711564579</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543473</v>
+        <v>38.3467939554348</v>
       </c>
       <c r="L15" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M15" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N15" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="O15" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,7 +35778,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5313434880997079</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -35790,10 +35790,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.22138193462115</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.447489225915332</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>46.54254681715459</v>
       </c>
       <c r="K16" t="n">
-        <v>108.3152893917243</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>152.9313987541743</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6281067837864</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>140.669380155291</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.6696652528189</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.93127818937859</v>
+        <v>50.93127818937851</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.43790171150839</v>
       </c>
       <c r="J17" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.192770182586</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514382</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O17" t="n">
-        <v>188.4979333192472</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>164.4195514504442</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>37.0682408827041</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>47.29712943433467</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L18" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M18" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N18" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="O18" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181817</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>56.43790171150839</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.192770182586</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N20" t="n">
-        <v>146.9613766051548</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36148,10 +36148,10 @@
         <v>69.93067636853624</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716516</v>
+        <v>42.11935404133291</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>47.29712943433467</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L21" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M21" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N21" t="n">
         <v>188.4979333192472</v>
@@ -36215,7 +36215,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43790171150837</v>
+        <v>56.43790171150839</v>
       </c>
       <c r="J23" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="K23" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.192770182586</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514382</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>69.70369005878521</v>
       </c>
       <c r="R23" t="n">
-        <v>73.41535206957431</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.29712943433467</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L24" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N24" t="n">
         <v>188.4979333192472</v>
@@ -36452,7 +36452,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>206.7575583777</v>
       </c>
       <c r="L26" t="n">
-        <v>260.677520706587</v>
+        <v>260.6775207065869</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704123</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5735314691446</v>
+        <v>289.5735314691448</v>
       </c>
       <c r="O26" t="n">
         <v>248.0510481933623</v>
@@ -36613,10 +36613,10 @@
         <v>198.3927781729122</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865789</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163413</v>
+        <v>18.60320514163406</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L27" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M27" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N27" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472316</v>
       </c>
       <c r="O27" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.30364493637464</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>188.2678851251075</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>176.0058665262241</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>56.56566353525864</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>289.5735314691448</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P29" t="n">
         <v>198.3927781729122</v>
@@ -36853,7 +36853,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163413</v>
+        <v>18.60320514163412</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L30" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M30" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N30" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472316</v>
       </c>
       <c r="O30" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.24514294109201</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>43.00383319171154</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37005,13 +37005,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>136.2489761328038</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.26776456031175</v>
+        <v>86.26776456031172</v>
       </c>
       <c r="R31" t="n">
-        <v>10.05478936836684</v>
+        <v>10.05478936836682</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.4137166761569</v>
+        <v>137.5308414262712</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5852682445643</v>
+        <v>187.4681434944499</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734512</v>
+        <v>261.5052305734513</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9911463372766</v>
+        <v>295.9911463372767</v>
       </c>
       <c r="N32" t="n">
         <v>290.4012413360091</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8787580602266</v>
+        <v>248.8787580602267</v>
       </c>
       <c r="P32" t="n">
         <v>199.2204880397765</v>
@@ -37090,7 +37090,7 @@
         <v>124.6007233534433</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849839</v>
+        <v>19.43091500849842</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37200,25 +37200,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>36.69553972589713</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.85527941889288</v>
       </c>
       <c r="D34" t="n">
-        <v>1.338280822971908</v>
+        <v>69.12981014015452</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>72.63631917864024</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.3429714886739719</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>48.48806273619862</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>176.8335763930884</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>31.04939904079269</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916747</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37312,16 +37312,16 @@
         <v>47.19277018258605</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641146</v>
+        <v>209.8859832609575</v>
       </c>
       <c r="N35" t="n">
-        <v>84.63338687034849</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O35" t="n">
-        <v>260.4608093700288</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>256.96719590518</v>
       </c>
       <c r="Q35" t="n">
         <v>182.3474312188468</v>
@@ -37330,7 +37330,7 @@
         <v>77.17762287390191</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.54217369782055</v>
       </c>
       <c r="T35" t="n">
         <v>49.59328685644947</v>
@@ -37482,13 +37482,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>16.96045803179571</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>195.2775492916747</v>
       </c>
       <c r="K38" t="n">
-        <v>260.4608093700288</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>47.19277018258605</v>
       </c>
       <c r="M38" t="n">
-        <v>260.4608093700288</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N38" t="n">
         <v>76.08878094514388</v>
       </c>
       <c r="O38" t="n">
-        <v>130.1492026416918</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="P38" t="n">
-        <v>256.96719590518</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>182.3474312188468</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>77.17762287390191</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>44.54217369782055</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.59328685644947</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37743,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -37783,31 +37783,31 @@
         <v>234.2825770691751</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2025393980621</v>
+        <v>47.19277018258603</v>
       </c>
       <c r="M41" t="n">
-        <v>81.67868594641146</v>
+        <v>81.67868594641145</v>
       </c>
       <c r="N41" t="n">
-        <v>282.0831056032625</v>
+        <v>130.7850734252091</v>
       </c>
       <c r="O41" t="n">
-        <v>34.56629766936143</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9177968643874</v>
+        <v>225.9177968643873</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310923</v>
+        <v>46.1282238331092</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702787</v>
+        <v>13.49277465702784</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565679</v>
+        <v>18.54388781565676</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>103.0986344208987</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38017,34 +38017,34 @@
         <v>164.228150250882</v>
       </c>
       <c r="K44" t="n">
-        <v>61.46187499079129</v>
+        <v>234.2825770691751</v>
       </c>
       <c r="L44" t="n">
-        <v>288.2025393980621</v>
+        <v>47.19277018258603</v>
       </c>
       <c r="M44" t="n">
-        <v>81.67868594641146</v>
+        <v>81.67868594641145</v>
       </c>
       <c r="N44" t="n">
-        <v>76.08878094514388</v>
+        <v>130.7850734252091</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5760668848375</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9177968643874</v>
+        <v>225.9177968643873</v>
       </c>
       <c r="Q44" t="n">
         <v>151.2980321780541</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310923</v>
+        <v>46.1282238331092</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.49277465702784</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565679</v>
+        <v>18.54388781565676</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>103.0986344208987</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
